--- a/medicine/Mort/Cimetière_Bogoslovskoïe/Cimetière_Bogoslovskoïe.xlsx
+++ b/medicine/Mort/Cimetière_Bogoslovskoïe/Cimetière_Bogoslovskoïe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Bogoslovsko%C3%AFe</t>
+          <t>Cimetière_Bogoslovskoïe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Bogoslovskoïe (en russe : Богословское кладбище) est un cimetière de Saint-Pétersbourg situé dans le quartier de Kalinine, dans la partie nord de la ville.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Bogoslovsko%C3%AFe</t>
+          <t>Cimetière_Bogoslovskoïe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière tient son nom de l'église Saint-Jean-Chrysostome (Ioann Bogoslov en russe), disparue au XIXe siècle, qui était entourée d'un petit cimetière depuis le XVIIIe siècle et qui se trouvait à plus de deux kilomètres au sud de l'actuel cimetière. Celui-ci a été fondé en 1841. Une chapelle de pierre a été construite en 1853-1854, remplacée en 1915 par une église construite par l'architecte Viktor Bobrov et consacrée à saint Jean-Chrysostome ou saint Jean-Bouche-d'Or. L'église est pillée et démolie en 1938, ainsi qu'une partie du cimetière, sous le prétexte qu'elles se trouvaient près d'une zone militaire. Une nouvelle petite église de bois et construite en 2000 et dédiée à saint Jean l'Évangéliste.
 Pendant les terribles années du blocus de Leningrad, le cimetière fut le lieu d'inhumations de masse le plus important des habitants de la ville morts de froid ou de faim.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Bogoslovsko%C3%AFe</t>
+          <t>Cimetière_Bogoslovskoïe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,24 +560,97 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Militaires
-Vassili Chorine (1870-1938), commandant de l'Armée rouge
+          <t>Militaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Vassili Chorine (1870-1938), commandant de l'Armée rouge
 Filipp Danilovitch Gorelenko (1888-1956), lieutenant-général, héros de l'Union soviétique
 Anatoli Gourevitch (1913-2009), espion soviétique sous le nom de Kent
 Nikolaï Lounine (1907-1970), capitaine du sous-marin K-21 pendant la Grande Guerre patriotique
 Alexandre Marinesko (1913-1963), sous-marinier, héros de l'Union soviétique
-Nikolaï Simoniak (1901-1956), lieutenant-général, héros de l'Union soviétique
-Scientifiques
-Alexandre Alexandrov (1912-1999), mathématicien, académicien
+Nikolaï Simoniak (1901-1956), lieutenant-général, héros de l'Union soviétique</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_Bogoslovskoïe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Bogoslovsko%C3%AFe</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Scientifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Alexandre Alexandrov (1912-1999), mathématicien, académicien
 Nikolaï Anitchkov (1885-1964), médecin, académicien
 Mikhaïl Bontch-Brouïevitch (1888-1940), pionnier de la radio-télécommunication
 Ivan Borodine (1847-1930), botaniste, académicien
 Boris Ievseïevitch Bykhovski (1908-1974), parasitologiste
 Nikolaï Korotkov (1874-1920), pionnier de la chirurgie vasculaire
 Iossif Orbeli (1887-1961), physiologiste, académicien
-Viktor Perchine (1902-1968), kontr-admiral, créateur du premier sous-marin nucléaire soviétique
-Monde de la culture
-Vitaly Bianchi (1894-1959), écrivain
+Viktor Perchine (1902-1968), kontr-admiral, créateur du premier sous-marin nucléaire soviétique</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_Bogoslovskoïe</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Bogoslovsko%C3%AFe</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Monde de la culture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Vitaly Bianchi (1894-1959), écrivain
 Friedrich Ermler (1898-1967), réalisateur
 Vladimir Gardine (1877-1965), acteur
 Elena Granovskaïa (1877-1968), actrice
@@ -581,9 +668,43 @@
 Zoïa Rojdestvenskaïa (1906-1953), chanteuse
 Lev Ouspenski (1900-1978), écrivain
 Evgueni Schwarz (1896-1958), dramaturge
-Viktor Tsoï (1962-1990), chanteur de rock
-Sportifs
-Ievgueni Belocheïkine (1966-1999), champion de hockey sur glace
+Viktor Tsoï (1962-1990), chanteur de rock</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cimetière_Bogoslovskoïe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_Bogoslovsko%C3%AFe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sportifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ievgueni Belocheïkine (1966-1999), champion de hockey sur glace
 Dimitri Nielioubine (1971-2005), coureur cycliste
 Sur les autres projets Wikimedia :
 Cimetière Bogoslovskoïe, sur Wikimedia Commons
